--- a/Ontologia_Portas.xlsx
+++ b/Ontologia_Portas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLMenegotto\Projetos\OntoBIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E426D08-CF2A-4383-B652-60427CEA5018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F05215-3E23-4C20-BFB7-55CF8C75094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjInfo" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3405" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="521">
   <si>
     <t>IfcPolyline</t>
   </si>
@@ -1028,99 +1028,15 @@
     <t>Diafragma</t>
   </si>
   <si>
-    <t>PassagemSegurança</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento</t>
-  </si>
-  <si>
     <t>Vãos</t>
   </si>
   <si>
-    <t>PortaSimples</t>
-  </si>
-  <si>
-    <t>PortaDupla</t>
-  </si>
-  <si>
     <t>PortaSeccional</t>
   </si>
   <si>
-    <t>PortaAcústica</t>
-  </si>
-  <si>
-    <t>PortaFrigorífica</t>
-  </si>
-  <si>
     <t>VãoPassagem</t>
   </si>
   <si>
-    <t>Porta1FCega</t>
-  </si>
-  <si>
-    <t>Porta1FCegaCorrediça</t>
-  </si>
-  <si>
-    <t>Porta1FCegaGrelVent</t>
-  </si>
-  <si>
-    <t>Porta1FCortaFogo</t>
-  </si>
-  <si>
-    <t>Porta1FVisor</t>
-  </si>
-  <si>
-    <t>Porta1FVisorTotal</t>
-  </si>
-  <si>
-    <t>Porta1FVisorGrelVent</t>
-  </si>
-  <si>
-    <t>Porta1FPivotanteCega</t>
-  </si>
-  <si>
-    <t>Porta1FPivotanteVisor</t>
-  </si>
-  <si>
-    <t>Porta1FElevador</t>
-  </si>
-  <si>
-    <t>Porta2FCegaIguais</t>
-  </si>
-  <si>
-    <t>Porta2FCegaDesig</t>
-  </si>
-  <si>
-    <t>Porta2FCegaIguaisGrelVent</t>
-  </si>
-  <si>
-    <t>Porta2FCegaDesigGrelVent</t>
-  </si>
-  <si>
-    <t>Porta2FVisorIguais</t>
-  </si>
-  <si>
-    <t>Porta2FVisorDesig</t>
-  </si>
-  <si>
-    <t>Porta2FPivotanteCega</t>
-  </si>
-  <si>
-    <t>Porta2FPivotanteVisor</t>
-  </si>
-  <si>
-    <t>Porta2FVisorTotal</t>
-  </si>
-  <si>
-    <t>Porta2FEscapeAnti-Pânico</t>
-  </si>
-  <si>
-    <t>PortaElevadorDupla</t>
-  </si>
-  <si>
-    <t>PortaDuplaPantográfica</t>
-  </si>
-  <si>
     <t>PortaGiratória</t>
   </si>
   <si>
@@ -1157,24 +1073,6 @@
     <t>PortaSeccionalMicroperfurada</t>
   </si>
   <si>
-    <t>PortaAcústica1FCega</t>
-  </si>
-  <si>
-    <t>PortaAcústica1FVisor</t>
-  </si>
-  <si>
-    <t>PortaAcústica2FCegaIguais</t>
-  </si>
-  <si>
-    <t>PortaAcústica2FCegaDesig</t>
-  </si>
-  <si>
-    <t>PortaAcústicaSeccional</t>
-  </si>
-  <si>
-    <t>PortaAcústicaEscapeAnti-Pânico</t>
-  </si>
-  <si>
     <t>PortaFrigGiratóriaClipeFechamento</t>
   </si>
   <si>
@@ -1202,9 +1100,6 @@
     <t>PassadorAçoInox</t>
   </si>
   <si>
-    <t>esq:</t>
-  </si>
-  <si>
     <t>Disjuntas 6</t>
   </si>
   <si>
@@ -1214,171 +1109,12 @@
     <t>Disjuntas 8</t>
   </si>
   <si>
-    <t>PortaEnvidraçada</t>
-  </si>
-  <si>
     <t>PassThrough</t>
   </si>
   <si>
     <t>Objetos do modelo BIM em Revit</t>
   </si>
   <si>
-    <t>PassagemSegurança: Vãospassagem: VãoPassagem</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSimples: Porta1FCega</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSimples: Porta1FCegaCorrediça</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSimples: Porta1FCegaGrelVent</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSimples: Porta1FCortaFogo</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSimples: Porta1FVisor</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSimples: Porta1FVisorTotal</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSimples: Porta1FVisorGrelVent</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSimples: Porta1FPivotanteCega</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSimples: Porta1FPivotanteVisor</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSimples: Porta1FElevador</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaDupla: Porta2FCegaIguais</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaDupla: Porta2FCegaDesig</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaDupla: Porta2FCegaIguaisGrelVent</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaDupla: Porta2FCegaDesigGrelVent</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaDupla: Porta2FVisorIguais</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaDupla: Porta2FVisorDesig</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaDupla: Porta2FPivotanteCega</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaDupla: Porta2FPivotanteVisor</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaDupla: Porta2FVisorTotal</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaDupla: Porta2FEscapeAnti-Pânico</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaDupla: PortaElevadorDupla</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaDupla: PortaSeccional</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaDupla: PortaDuplaPantográfica</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaAcessoEnvidraçada: PortaGiratória</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaAcessoEnvidraçada: PortaBlindex</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSeccional: PortaSeccional</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSeccional: PortaEnrolarArticuladaMeia-cana</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSeccional: PortaEnrolarArticuladaRaiada</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSeccional: PortaEnrolarArticuladaVazada</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSeccional: PortaEnrolarArticuladaPerfurada</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSeccional: PortaEnrolarArticuladaGrill</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSeccional: PortaSeccionalRápida</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSeccional: PortaSeccionalRápidaLimpa</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSeccional: PortaSeccionalGuilhotina</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSeccional: PortaSeccionalLisa</t>
-  </si>
-  <si>
-    <t>PassagemSegurança: PortaSeccional: PortaSeccionalMicroperfurada</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PortaAcústica: PortaAcústica1FCega</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PortaAcústica: PortaAcústica1FVisor</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PortaAcústica: PortaAcústica2FCegaIguais</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PortaAcústica: PortaAcústica2FCegaDesig</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PortaAcústica: PortaAcústicaSeccional</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PortaAcústica: PortaAcústicaEscapeAnti-Pânico</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PortaFrigorífica: PortaFrigGiratóriaClipeFechamento</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PortaFrigorífica: PortaFrigGiratóriaBlocoFechamento</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PortaFrigorífica: PortaFrigPivotante</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PortaFrigorífica: PortaFrigCorrediçaTrilho</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PassadorPassThrough: PassadorGuilhotina</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PassadorPassThrough: PassadorEspecial</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PassadorPassThrough: PassadorDutoExaustão</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PassadorPassThrough: PassadorPintado</t>
-  </si>
-  <si>
-    <t>PassagemIsolamento: PassadorPassThrough: PassadorAçoInox</t>
-  </si>
-  <si>
     <t>Elementos de diafragma</t>
   </si>
   <si>
@@ -1572,6 +1308,306 @@
   </si>
   <si>
     <t>3.00</t>
+  </si>
+  <si>
+    <t>Frigoríficas</t>
+  </si>
+  <si>
+    <t>Acústicas</t>
+  </si>
+  <si>
+    <t>Seccionais</t>
+  </si>
+  <si>
+    <t>PortaSegurança</t>
+  </si>
+  <si>
+    <t>PortasIsolamento</t>
+  </si>
+  <si>
+    <t>Envidraçada</t>
+  </si>
+  <si>
+    <t>Duplas</t>
+  </si>
+  <si>
+    <t>Simples</t>
+  </si>
+  <si>
+    <t>FolhaCega</t>
+  </si>
+  <si>
+    <t>FolhaCegaCorrediça</t>
+  </si>
+  <si>
+    <t>FolhaCegaGrelVent</t>
+  </si>
+  <si>
+    <t>FolhaCegaCortaFogo</t>
+  </si>
+  <si>
+    <t>FolhaComVisor</t>
+  </si>
+  <si>
+    <t>FolhaComVisorTotal</t>
+  </si>
+  <si>
+    <t>FolhaComVisorGrelVent</t>
+  </si>
+  <si>
+    <t>FolhaPivotanteCega</t>
+  </si>
+  <si>
+    <t>FolhaPivotanteVisor</t>
+  </si>
+  <si>
+    <t>FolhaElevador</t>
+  </si>
+  <si>
+    <t>FolhasCegasIguais</t>
+  </si>
+  <si>
+    <t>FolhasCegasDesig</t>
+  </si>
+  <si>
+    <t>FolhasCegasIguaisGrelVent</t>
+  </si>
+  <si>
+    <t>FolhasCegasDesigGrelVent</t>
+  </si>
+  <si>
+    <t>FolhasVisorIguais</t>
+  </si>
+  <si>
+    <t>FolhasVisorDesig</t>
+  </si>
+  <si>
+    <t>FolhasPivotantesCegas</t>
+  </si>
+  <si>
+    <t>FolhasPivotantesVisor</t>
+  </si>
+  <si>
+    <t>FolhasVisorTotal</t>
+  </si>
+  <si>
+    <t>FolhasEscapeAnti-Pânico</t>
+  </si>
+  <si>
+    <t>FolhasElevadorDupla</t>
+  </si>
+  <si>
+    <t>FolhasSeccional</t>
+  </si>
+  <si>
+    <t>FolhasPantográficas</t>
+  </si>
+  <si>
+    <t>FolhaAcústicaCega</t>
+  </si>
+  <si>
+    <t>FolhaAcústicaVisor</t>
+  </si>
+  <si>
+    <t>FolhasAcústicasCegasIguais</t>
+  </si>
+  <si>
+    <t>FolhasAcústicasCegasDesig</t>
+  </si>
+  <si>
+    <t>FolhasAcústicasSeccionais</t>
+  </si>
+  <si>
+    <t>FolhasAcústicasEscapeAnti-Pânico</t>
+  </si>
+  <si>
+    <t>Porta Simples</t>
+  </si>
+  <si>
+    <t>Porta Dupla</t>
+  </si>
+  <si>
+    <t>Porta Envidraçada</t>
+  </si>
+  <si>
+    <t>Porta Seccional</t>
+  </si>
+  <si>
+    <t>Porta Acústica</t>
+  </si>
+  <si>
+    <t>Porta Frigorífica</t>
+  </si>
+  <si>
+    <t>Passagem e Isolamento</t>
+  </si>
+  <si>
+    <t>Passagem e Segurança</t>
+  </si>
+  <si>
+    <t>Vão de Passagem</t>
+  </si>
+  <si>
+    <t>Folha Cega</t>
+  </si>
+  <si>
+    <t>Folha Cega Corrediça</t>
+  </si>
+  <si>
+    <t>Folha Cega com grelha de ventilação</t>
+  </si>
+  <si>
+    <t>Folha Cega CortaFogo</t>
+  </si>
+  <si>
+    <t>Folha Com Visor</t>
+  </si>
+  <si>
+    <t>Folha Com Visor Total</t>
+  </si>
+  <si>
+    <t>Folha Com Visor e grelha de ventilação</t>
+  </si>
+  <si>
+    <t>FolhasCegasIguais e grelha de ventilação</t>
+  </si>
+  <si>
+    <t>FolhasCegasDesiguais e grelha de ventilação</t>
+  </si>
+  <si>
+    <t>Folhas Cegas Desig</t>
+  </si>
+  <si>
+    <t>Folhas Cegas Iguais</t>
+  </si>
+  <si>
+    <t>Folha de Elevador</t>
+  </si>
+  <si>
+    <t>Folha Pivotante Visor</t>
+  </si>
+  <si>
+    <t>Folha Pivotante Cega</t>
+  </si>
+  <si>
+    <t>Folhas Visor Iguais</t>
+  </si>
+  <si>
+    <t>Folhas Visor Desig</t>
+  </si>
+  <si>
+    <t>Folhas Pivotantes Cegas</t>
+  </si>
+  <si>
+    <t>Folhas Pivotantes Visor</t>
+  </si>
+  <si>
+    <t>Folhas Visor Total</t>
+  </si>
+  <si>
+    <t>Folhas Escape Anti-Pânico</t>
+  </si>
+  <si>
+    <t>Folhas Elevador Dupla</t>
+  </si>
+  <si>
+    <t>Folhas Seccional</t>
+  </si>
+  <si>
+    <t>Folhas Pantográficas</t>
+  </si>
+  <si>
+    <t>Porta Giratória</t>
+  </si>
+  <si>
+    <t>Porta Blindex</t>
+  </si>
+  <si>
+    <t>Porta de Enrolar Articulada Meia-cana</t>
+  </si>
+  <si>
+    <t>Porta de Enrolar Articulada Raiada</t>
+  </si>
+  <si>
+    <t>Porta de Enrolar Articulada Vazada</t>
+  </si>
+  <si>
+    <t>Porta de Enrolar Articulada Perfurada</t>
+  </si>
+  <si>
+    <t>Porta de Enrolar Articulada Grill</t>
+  </si>
+  <si>
+    <t>Porta Seccional Rápida</t>
+  </si>
+  <si>
+    <t>Porta Seccional Rápida para Sala Limpa</t>
+  </si>
+  <si>
+    <t>Porta Secciona lGuilhotina</t>
+  </si>
+  <si>
+    <t>Porta Seccional Lisa</t>
+  </si>
+  <si>
+    <t>Porta Seccional Microperfurada</t>
+  </si>
+  <si>
+    <t>Folha Acústica Cega</t>
+  </si>
+  <si>
+    <t>Folha Acústica Visor</t>
+  </si>
+  <si>
+    <t>Folhas Acústicas Cegas Iguais</t>
+  </si>
+  <si>
+    <t>Folhas Acústicas Cegas Desiguais</t>
+  </si>
+  <si>
+    <t>Folhas Acústicas Seccionais</t>
+  </si>
+  <si>
+    <t>Folhas Acústicas Escape Anti-Pânico</t>
+  </si>
+  <si>
+    <t>Porta Frigorífica Giratória com Clipe Fechamento</t>
+  </si>
+  <si>
+    <t>Porta Frigorífica Giratória com Bloco Fechamento</t>
+  </si>
+  <si>
+    <t>Porta Frigorífica Pivotante</t>
+  </si>
+  <si>
+    <t>Porta Frigorífica Corrediça sobre Trilho</t>
+  </si>
+  <si>
+    <t>Passador Guilhotina</t>
+  </si>
+  <si>
+    <t>Passador Especial</t>
+  </si>
+  <si>
+    <t>Passador Duto Exaustão</t>
+  </si>
+  <si>
+    <t>Passador Pintado</t>
+  </si>
+  <si>
+    <t>Passador de Aço Inox</t>
+  </si>
+  <si>
+    <t>PassThrough de Biosegurança</t>
+  </si>
+  <si>
+    <t>fofu:</t>
+  </si>
+  <si>
+    <t>TemaOntologia</t>
+  </si>
+  <si>
+    <t>Portas</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1743,39 +1779,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1873,23 +1881,11 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="428">
+  <dxfs count="416">
     <dxf>
       <font>
         <b val="0"/>
@@ -4910,14 +4906,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -4926,95 +4914,7 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
@@ -5574,10 +5474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC8FF4B-54F2-49C1-9780-3A24189E7C2F}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5598,118 +5498,126 @@
         <v>206</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>198</v>
+        <v>182</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>232</v>
+        <v>202</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="9">
-        <v>100</v>
+        <v>191</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>1</v>
+        <v>190</v>
+      </c>
+      <c r="B10" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5722,7 +5630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AC1531-C87A-4C29-A0CD-F0CD7095C26B}">
   <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A92" sqref="A92:XFD92"/>
     </sheetView>
   </sheetViews>
@@ -12543,21 +12451,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A179 A1:L1">
-    <cfRule type="containsText" dxfId="427" priority="2" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="415" priority="2" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="3" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="414" priority="3" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="425" priority="4" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="413" priority="4" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="5" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B179 A2:A92 C2:L179 A1:L1">
-    <cfRule type="cellIs" dxfId="423" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="1" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12567,11 +12475,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C443A3DD-080C-431B-94F2-F6282C8E2BED}">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M55" sqref="M55"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12581,22 +12489,17 @@
     <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" style="2" customWidth="1"/>
     <col min="7" max="9" width="7.21875" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="6.44140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="15.109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="13.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="34.5546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="41.44140625" style="2" customWidth="1"/>
-    <col min="17" max="20" width="2.33203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" style="2" customWidth="1"/>
-    <col min="22" max="25" width="2.33203125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="8.77734375" style="2" customWidth="1"/>
-    <col min="27" max="27" width="9.88671875" style="2" customWidth="1"/>
-    <col min="28" max="30" width="2.33203125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="7.33203125" style="2" customWidth="1"/>
+    <col min="16" max="29" width="2.44140625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="2.33203125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="2.44140625" style="2" customWidth="1"/>
     <col min="32" max="226" width="2.33203125" style="2" customWidth="1"/>
     <col min="227" max="16384" width="9.109375" style="2"/>
   </cols>
@@ -12659,14 +12562,14 @@
         <v>326</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>335</v>
-      </c>
       <c r="G2" s="11" t="s">
         <v>207</v>
       </c>
@@ -12677,23 +12580,23 @@
         <v>207</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K2" s="11" t="str">
         <f>_xlfn.CONCAT("POR",A2)</f>
         <v>POR2</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M2" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="N2" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="N2" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>392</v>
+      <c r="O2" s="33" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12707,13 +12610,13 @@
         <v>326</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>336</v>
+        <v>424</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>207</v>
@@ -12725,23 +12628,23 @@
         <v>207</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K3" s="11" t="str">
-        <f t="shared" ref="K3:K56" si="0">_xlfn.CONCAT("POR",A3)</f>
+        <f t="shared" ref="K3:K55" si="0">_xlfn.CONCAT("POR",A3)</f>
         <v>POR3</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>393</v>
+        <v>465</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12755,13 +12658,13 @@
         <v>326</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>337</v>
+        <v>424</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>207</v>
@@ -12773,23 +12676,23 @@
         <v>207</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR4</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N4" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>394</v>
+        <v>465</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12803,13 +12706,13 @@
         <v>326</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>338</v>
+        <v>424</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>207</v>
@@ -12821,23 +12724,23 @@
         <v>207</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR5</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="O5" s="34" t="s">
-        <v>395</v>
+        <v>465</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12851,13 +12754,13 @@
         <v>326</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>339</v>
+        <v>424</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>207</v>
@@ -12869,23 +12772,23 @@
         <v>207</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR6</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="O6" s="34" t="s">
-        <v>396</v>
+        <v>465</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12899,13 +12802,13 @@
         <v>326</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>340</v>
+        <v>424</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>207</v>
@@ -12917,23 +12820,23 @@
         <v>207</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR7</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N7" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="O7" s="34" t="s">
-        <v>397</v>
+        <v>465</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12947,13 +12850,13 @@
         <v>326</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>341</v>
+        <v>424</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>207</v>
@@ -12965,23 +12868,23 @@
         <v>207</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR8</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>398</v>
+        <v>465</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12995,13 +12898,13 @@
         <v>326</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>342</v>
+        <v>424</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>207</v>
@@ -13013,23 +12916,23 @@
         <v>207</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR9</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N9" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>399</v>
+        <v>465</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13043,13 +12946,13 @@
         <v>326</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>343</v>
+        <v>424</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>207</v>
@@ -13061,23 +12964,23 @@
         <v>207</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR10</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N10" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>400</v>
+        <v>465</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13091,13 +12994,13 @@
         <v>326</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>344</v>
+        <v>424</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>207</v>
@@ -13109,23 +13012,23 @@
         <v>207</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR11</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N11" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>401</v>
+        <v>465</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13139,13 +13042,13 @@
         <v>326</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>345</v>
+        <v>424</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>207</v>
@@ -13157,23 +13060,23 @@
         <v>207</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR12</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N12" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="O12" s="34" t="s">
-        <v>402</v>
+        <v>465</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13187,13 +13090,13 @@
         <v>326</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>346</v>
+        <v>424</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>207</v>
@@ -13205,23 +13108,23 @@
         <v>207</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR13</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M13" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="O13" s="34" t="s">
-        <v>403</v>
+        <v>465</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13235,13 +13138,13 @@
         <v>326</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>347</v>
+        <v>424</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>207</v>
@@ -13253,23 +13156,23 @@
         <v>207</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR14</v>
       </c>
       <c r="L14" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N14" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>404</v>
+        <v>465</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13283,13 +13186,13 @@
         <v>326</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>348</v>
+        <v>424</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>207</v>
@@ -13301,23 +13204,23 @@
         <v>207</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR15</v>
       </c>
       <c r="L15" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N15" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="O15" s="34" t="s">
-        <v>405</v>
+        <v>465</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13331,13 +13234,13 @@
         <v>326</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>349</v>
+        <v>424</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>207</v>
@@ -13349,23 +13252,23 @@
         <v>207</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR16</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N16" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="O16" s="34" t="s">
-        <v>406</v>
+        <v>465</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13379,13 +13282,13 @@
         <v>326</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>350</v>
+        <v>424</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>207</v>
@@ -13397,23 +13300,23 @@
         <v>207</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR17</v>
       </c>
       <c r="L17" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N17" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>407</v>
+        <v>465</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13427,13 +13330,13 @@
         <v>326</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>351</v>
+        <v>424</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>207</v>
@@ -13445,23 +13348,23 @@
         <v>207</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR18</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N18" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>408</v>
+        <v>465</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13475,13 +13378,13 @@
         <v>326</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>352</v>
+        <v>424</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>207</v>
@@ -13493,23 +13396,23 @@
         <v>207</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR19</v>
       </c>
       <c r="L19" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N19" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>409</v>
+        <v>465</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13523,13 +13426,13 @@
         <v>326</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>353</v>
+        <v>424</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>446</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>207</v>
@@ -13541,23 +13444,23 @@
         <v>207</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR20</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N20" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="O20" s="34" t="s">
-        <v>410</v>
+        <v>465</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13571,13 +13474,13 @@
         <v>326</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>354</v>
+        <v>424</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>207</v>
@@ -13589,23 +13492,23 @@
         <v>207</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR21</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N21" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>411</v>
+        <v>465</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13619,13 +13522,13 @@
         <v>326</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>355</v>
+        <v>424</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>207</v>
@@ -13637,23 +13540,23 @@
         <v>207</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR22</v>
       </c>
       <c r="L22" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N22" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>412</v>
+        <v>465</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13667,13 +13570,13 @@
         <v>326</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>356</v>
+        <v>424</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>207</v>
@@ -13685,23 +13588,23 @@
         <v>207</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR23</v>
       </c>
       <c r="L23" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M23" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N23" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="O23" s="34" t="s">
-        <v>413</v>
+        <v>465</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13715,13 +13618,13 @@
         <v>326</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>332</v>
+        <v>424</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>207</v>
@@ -13733,23 +13636,23 @@
         <v>207</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR24</v>
       </c>
       <c r="L24" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N24" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="O24" s="34" t="s">
-        <v>414</v>
+        <v>465</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13763,13 +13666,13 @@
         <v>326</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>357</v>
+        <v>424</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>207</v>
@@ -13781,23 +13684,23 @@
         <v>207</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K25" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR25</v>
       </c>
       <c r="L25" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N25" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="O25" s="34" t="s">
-        <v>415</v>
+        <v>465</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13811,13 +13714,13 @@
         <v>326</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>358</v>
+        <v>424</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>207</v>
@@ -13829,23 +13732,23 @@
         <v>207</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR26</v>
       </c>
       <c r="L26" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M26" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N26" s="37" t="s">
-        <v>389</v>
-      </c>
-      <c r="O26" s="34" t="s">
-        <v>416</v>
+        <v>465</v>
+      </c>
+      <c r="N26" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="O26" s="33" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13859,13 +13762,13 @@
         <v>326</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>359</v>
+        <v>424</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>207</v>
@@ -13877,23 +13780,23 @@
         <v>207</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR27</v>
       </c>
       <c r="L27" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M27" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N27" s="37" t="s">
-        <v>389</v>
-      </c>
-      <c r="O27" s="34" t="s">
-        <v>417</v>
+        <v>465</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13907,13 +13810,13 @@
         <v>326</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>332</v>
+        <v>424</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>207</v>
@@ -13925,23 +13828,23 @@
         <v>207</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR28</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N28" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="O28" s="34" t="s">
-        <v>418</v>
+        <v>465</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="O28" s="33" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13955,14 +13858,14 @@
         <v>326</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E29" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="F29" s="35" t="s">
-        <v>360</v>
-      </c>
       <c r="G29" s="11" t="s">
         <v>207</v>
       </c>
@@ -13973,23 +13876,23 @@
         <v>207</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR29</v>
       </c>
       <c r="L29" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M29" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N29" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="O29" s="34" t="s">
-        <v>419</v>
+        <v>465</v>
+      </c>
+      <c r="N29" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14003,13 +13906,13 @@
         <v>326</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>361</v>
+        <v>424</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>207</v>
@@ -14021,23 +13924,23 @@
         <v>207</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR30</v>
       </c>
       <c r="L30" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M30" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N30" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="O30" s="34" t="s">
-        <v>420</v>
+        <v>465</v>
+      </c>
+      <c r="N30" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="O30" s="33" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14051,13 +13954,13 @@
         <v>326</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>362</v>
+        <v>424</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>207</v>
@@ -14069,23 +13972,23 @@
         <v>207</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K31" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR31</v>
       </c>
       <c r="L31" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M31" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N31" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="O31" s="34" t="s">
-        <v>421</v>
+        <v>465</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="O31" s="33" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14099,13 +14002,13 @@
         <v>326</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>363</v>
+        <v>424</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>207</v>
@@ -14117,23 +14020,23 @@
         <v>207</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR32</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M32" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N32" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="O32" s="34" t="s">
-        <v>422</v>
+        <v>465</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14147,13 +14050,13 @@
         <v>326</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>364</v>
+        <v>424</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>207</v>
@@ -14165,23 +14068,23 @@
         <v>207</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K33" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR33</v>
       </c>
       <c r="L33" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M33" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N33" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="O33" s="34" t="s">
-        <v>423</v>
+        <v>465</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="O33" s="33" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14195,13 +14098,13 @@
         <v>326</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>365</v>
+        <v>424</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>207</v>
@@ -14213,23 +14116,23 @@
         <v>207</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K34" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR34</v>
       </c>
       <c r="L34" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M34" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N34" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="O34" s="34" t="s">
-        <v>424</v>
+        <v>465</v>
+      </c>
+      <c r="N34" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="O34" s="33" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14243,13 +14146,13 @@
         <v>326</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>366</v>
+        <v>424</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>207</v>
@@ -14261,23 +14164,23 @@
         <v>207</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K35" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR35</v>
       </c>
       <c r="L35" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M35" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N35" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="O35" s="34" t="s">
-        <v>425</v>
+        <v>465</v>
+      </c>
+      <c r="N35" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14291,13 +14194,13 @@
         <v>326</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>367</v>
+        <v>424</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>207</v>
@@ -14309,23 +14212,23 @@
         <v>207</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K36" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR36</v>
       </c>
       <c r="L36" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M36" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N36" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="O36" s="38" t="s">
-        <v>426</v>
+        <v>465</v>
+      </c>
+      <c r="N36" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="O36" s="33" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14339,13 +14242,13 @@
         <v>326</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>368</v>
+        <v>424</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>207</v>
@@ -14357,23 +14260,23 @@
         <v>207</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K37" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR37</v>
       </c>
       <c r="L37" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M37" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N37" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="O37" s="38" t="s">
-        <v>427</v>
+        <v>465</v>
+      </c>
+      <c r="N37" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="O37" s="33" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14387,13 +14290,13 @@
         <v>326</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>369</v>
+        <v>424</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>207</v>
@@ -14405,23 +14308,23 @@
         <v>207</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K38" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR38</v>
       </c>
       <c r="L38" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M38" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N38" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="O38" s="38" t="s">
-        <v>428</v>
+        <v>465</v>
+      </c>
+      <c r="N38" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="O38" s="33" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14435,13 +14338,13 @@
         <v>326</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>370</v>
+        <v>424</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>207</v>
@@ -14453,23 +14356,23 @@
         <v>207</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K39" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR39</v>
       </c>
       <c r="L39" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M39" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N39" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="O39" s="38" t="s">
-        <v>429</v>
+        <v>465</v>
+      </c>
+      <c r="N39" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="O39" s="33" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14483,13 +14386,13 @@
         <v>326</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>371</v>
+        <v>424</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>207</v>
@@ -14501,23 +14404,23 @@
         <v>207</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K40" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR40</v>
       </c>
       <c r="L40" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M40" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N40" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="O40" s="38" t="s">
-        <v>430</v>
+        <v>465</v>
+      </c>
+      <c r="N40" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="O40" s="33" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14531,13 +14434,13 @@
         <v>326</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>372</v>
+        <v>424</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>207</v>
@@ -14549,23 +14452,23 @@
         <v>207</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K41" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR41</v>
       </c>
       <c r="L41" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M41" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N41" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="O41" s="38" t="s">
-        <v>431</v>
+        <v>465</v>
+      </c>
+      <c r="N41" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="O41" s="33" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14579,13 +14482,13 @@
         <v>326</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>373</v>
+        <v>424</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>207</v>
@@ -14597,23 +14500,23 @@
         <v>207</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K42" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR42</v>
       </c>
       <c r="L42" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M42" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N42" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="O42" s="38" t="s">
-        <v>432</v>
+        <v>465</v>
+      </c>
+      <c r="N42" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="O42" s="33" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14627,13 +14530,13 @@
         <v>326</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>374</v>
+        <v>424</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>207</v>
@@ -14645,23 +14548,23 @@
         <v>207</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K43" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR43</v>
       </c>
       <c r="L43" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M43" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N43" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="O43" s="38" t="s">
-        <v>433</v>
+        <v>465</v>
+      </c>
+      <c r="N43" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="O43" s="33" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14675,13 +14578,13 @@
         <v>326</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>375</v>
+        <v>424</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>207</v>
@@ -14693,23 +14596,23 @@
         <v>207</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K44" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR44</v>
       </c>
       <c r="L44" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M44" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N44" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="O44" s="38" t="s">
-        <v>434</v>
+        <v>465</v>
+      </c>
+      <c r="N44" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="O44" s="33" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14723,13 +14626,13 @@
         <v>326</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>376</v>
+        <v>425</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>207</v>
@@ -14741,23 +14644,23 @@
         <v>207</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K45" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR45</v>
       </c>
       <c r="L45" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M45" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="N45" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="O45" s="38" t="s">
-        <v>435</v>
+        <v>465</v>
+      </c>
+      <c r="N45" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="O45" s="33" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14771,13 +14674,13 @@
         <v>326</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>377</v>
+        <v>425</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>207</v>
@@ -14789,23 +14692,23 @@
         <v>207</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K46" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR46</v>
       </c>
       <c r="L46" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M46" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="N46" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="O46" s="38" t="s">
-        <v>436</v>
+        <v>464</v>
+      </c>
+      <c r="N46" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="O46" s="33" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14819,13 +14722,13 @@
         <v>326</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>378</v>
+        <v>425</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>207</v>
@@ -14837,23 +14740,23 @@
         <v>207</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K47" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR47</v>
       </c>
       <c r="L47" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M47" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="N47" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="O47" s="38" t="s">
-        <v>437</v>
+        <v>464</v>
+      </c>
+      <c r="N47" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="O47" s="33" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14867,13 +14770,13 @@
         <v>326</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>379</v>
+        <v>425</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>207</v>
@@ -14885,23 +14788,23 @@
         <v>207</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K48" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR48</v>
       </c>
       <c r="L48" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M48" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="N48" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="O48" s="38" t="s">
-        <v>438</v>
+        <v>464</v>
+      </c>
+      <c r="N48" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="O48" s="33" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14915,13 +14818,13 @@
         <v>326</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>380</v>
+        <v>425</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>207</v>
@@ -14933,23 +14836,23 @@
         <v>207</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K49" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR49</v>
       </c>
       <c r="L49" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M49" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="N49" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="O49" s="38" t="s">
-        <v>439</v>
+        <v>464</v>
+      </c>
+      <c r="N49" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="O49" s="33" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14963,13 +14866,13 @@
         <v>326</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>381</v>
+        <v>425</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>207</v>
@@ -14981,23 +14884,23 @@
         <v>207</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K50" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR50</v>
       </c>
       <c r="L50" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M50" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="N50" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="O50" s="38" t="s">
-        <v>440</v>
+        <v>464</v>
+      </c>
+      <c r="N50" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="O50" s="33" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15011,13 +14914,13 @@
         <v>326</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>382</v>
+        <v>425</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>207</v>
@@ -15029,23 +14932,23 @@
         <v>207</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K51" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR51</v>
       </c>
       <c r="L51" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M51" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="N51" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="O51" s="38" t="s">
-        <v>441</v>
+        <v>464</v>
+      </c>
+      <c r="N51" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="O51" s="33" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15059,13 +14962,13 @@
         <v>326</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>383</v>
+        <v>425</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>207</v>
@@ -15077,23 +14980,23 @@
         <v>207</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K52" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR52</v>
       </c>
       <c r="L52" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M52" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="N52" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="O52" s="34" t="s">
-        <v>442</v>
+        <v>464</v>
+      </c>
+      <c r="N52" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="O52" s="33" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15107,13 +15010,13 @@
         <v>326</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="F53" s="35" t="s">
-        <v>384</v>
+        <v>425</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>207</v>
@@ -15125,23 +15028,23 @@
         <v>207</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K53" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR53</v>
       </c>
       <c r="L53" s="34" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M53" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="N53" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="O53" s="34" t="s">
-        <v>443</v>
+        <v>464</v>
+      </c>
+      <c r="N53" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="O53" s="33" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15152,16 +15055,16 @@
         <v>229</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>326</v>
+        <v>250</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>384</v>
+        <v>228</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>207</v>
@@ -15173,23 +15076,23 @@
         <v>207</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="K54" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR54</v>
       </c>
-      <c r="L54" s="34" t="s">
-        <v>444</v>
+      <c r="L54" s="33" t="s">
+        <v>355</v>
       </c>
       <c r="M54" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="N54" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="O54" s="34" t="s">
-        <v>443</v>
+        <v>417</v>
+      </c>
+      <c r="N54" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="O54" s="33" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15203,13 +15106,13 @@
         <v>250</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>252</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>207</v>
@@ -15228,16 +15131,16 @@
         <v>POR55</v>
       </c>
       <c r="L55" s="33" t="s">
-        <v>391</v>
+        <v>309</v>
       </c>
       <c r="M55" s="33" t="s">
-        <v>505</v>
+        <v>308</v>
       </c>
       <c r="N55" s="33" t="s">
-        <v>504</v>
+        <v>308</v>
       </c>
       <c r="O55" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15254,10 +15157,10 @@
         <v>251</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>207</v>
@@ -15272,20 +15175,20 @@
         <v>207</v>
       </c>
       <c r="K56" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K56" si="1">_xlfn.CONCAT("POR",A56)</f>
         <v>POR56</v>
       </c>
       <c r="L56" s="33" t="s">
         <v>309</v>
       </c>
       <c r="M56" s="33" t="s">
-        <v>308</v>
+        <v>372</v>
       </c>
       <c r="N56" s="33" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="O56" s="33" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15305,7 +15208,7 @@
         <v>301</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>207</v>
@@ -15320,20 +15223,20 @@
         <v>207</v>
       </c>
       <c r="K57" s="11" t="str">
-        <f t="shared" ref="K57" si="1">_xlfn.CONCAT("POR",A57)</f>
+        <f t="shared" ref="K57:K70" si="2">_xlfn.CONCAT("POR",A57)</f>
         <v>POR57</v>
       </c>
       <c r="L57" s="33" t="s">
         <v>309</v>
       </c>
       <c r="M57" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N57" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O57" s="33" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15353,7 +15256,7 @@
         <v>301</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>207</v>
@@ -15368,20 +15271,20 @@
         <v>207</v>
       </c>
       <c r="K58" s="11" t="str">
-        <f t="shared" ref="K58:K71" si="2">_xlfn.CONCAT("POR",A58)</f>
+        <f t="shared" si="2"/>
         <v>POR58</v>
       </c>
       <c r="L58" s="33" t="s">
         <v>309</v>
       </c>
       <c r="M58" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N58" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O58" s="33" t="s">
-        <v>486</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15401,7 +15304,7 @@
         <v>301</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>457</v>
+        <v>370</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>207</v>
@@ -15423,13 +15326,13 @@
         <v>309</v>
       </c>
       <c r="M59" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N59" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O59" s="33" t="s">
-        <v>487</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15449,7 +15352,7 @@
         <v>301</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>458</v>
+        <v>371</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>207</v>
@@ -15471,13 +15374,13 @@
         <v>309</v>
       </c>
       <c r="M60" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N60" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O60" s="33" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15497,7 +15400,7 @@
         <v>301</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>459</v>
+        <v>359</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>207</v>
@@ -15519,13 +15422,13 @@
         <v>309</v>
       </c>
       <c r="M61" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N61" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O61" s="33" t="s">
-        <v>489</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15545,7 +15448,7 @@
         <v>301</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>447</v>
+        <v>360</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>207</v>
@@ -15567,13 +15470,13 @@
         <v>309</v>
       </c>
       <c r="M62" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N62" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O62" s="33" t="s">
-        <v>490</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15593,7 +15496,7 @@
         <v>301</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>448</v>
+        <v>361</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>207</v>
@@ -15615,13 +15518,13 @@
         <v>309</v>
       </c>
       <c r="M63" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N63" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O63" s="33" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15641,7 +15544,7 @@
         <v>301</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>449</v>
+        <v>362</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>207</v>
@@ -15663,13 +15566,13 @@
         <v>309</v>
       </c>
       <c r="M64" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N64" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O64" s="33" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15689,7 +15592,7 @@
         <v>301</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>450</v>
+        <v>363</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>207</v>
@@ -15711,13 +15614,13 @@
         <v>309</v>
       </c>
       <c r="M65" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N65" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O65" s="33" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15737,7 +15640,7 @@
         <v>301</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>451</v>
+        <v>364</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>207</v>
@@ -15759,13 +15662,13 @@
         <v>309</v>
       </c>
       <c r="M66" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N66" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O66" s="33" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15785,7 +15688,7 @@
         <v>301</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>207</v>
@@ -15807,16 +15710,16 @@
         <v>309</v>
       </c>
       <c r="M67" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N67" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O67" s="33" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="27">
         <v>68</v>
       </c>
@@ -15833,7 +15736,7 @@
         <v>301</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>453</v>
+        <v>366</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>207</v>
@@ -15855,13 +15758,13 @@
         <v>309</v>
       </c>
       <c r="M68" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N68" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O68" s="33" t="s">
-        <v>496</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -15881,7 +15784,7 @@
         <v>301</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>207</v>
@@ -15903,13 +15806,13 @@
         <v>309</v>
       </c>
       <c r="M69" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N69" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O69" s="33" t="s">
-        <v>497</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -15929,7 +15832,7 @@
         <v>301</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>455</v>
+        <v>368</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>207</v>
@@ -15951,13 +15854,13 @@
         <v>309</v>
       </c>
       <c r="M70" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N70" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O70" s="33" t="s">
-        <v>500</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -15977,7 +15880,7 @@
         <v>301</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>207</v>
@@ -15992,25 +15895,25 @@
         <v>207</v>
       </c>
       <c r="K71" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K71:K72" si="3">_xlfn.CONCAT("POR",A71)</f>
         <v>POR71</v>
       </c>
       <c r="L71" s="33" t="s">
         <v>309</v>
       </c>
       <c r="M71" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N71" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O71" s="33" t="s">
-        <v>501</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>229</v>
@@ -16025,7 +15928,7 @@
         <v>301</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>207</v>
@@ -16040,227 +15943,151 @@
         <v>207</v>
       </c>
       <c r="K72" s="11" t="str">
-        <f t="shared" ref="K72:K73" si="3">_xlfn.CONCAT("POR",A72)</f>
-        <v>POR70</v>
+        <f t="shared" si="3"/>
+        <v>POR72</v>
       </c>
       <c r="L72" s="33" t="s">
         <v>309</v>
       </c>
       <c r="M72" s="33" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="N72" s="33" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="O72" s="33" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="27">
-        <v>71</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="K73" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>POR71</v>
-      </c>
-      <c r="L73" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="M73" s="33" t="s">
-        <v>460</v>
-      </c>
-      <c r="N73" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="O73" s="33" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E55">
-    <sortCondition ref="E1:E55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E54">
+    <sortCondition ref="E1:E54"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:J1 B2:D2 B3:B49 G2:J2 G3:I49 J3:J54 L1:XFD1 L2:M54 O2:O54 B55:E71 A2:A71 K1:K73 P2:XFD73 A72:E73 A74:XFD1048576 C3:D56">
-    <cfRule type="containsText" dxfId="422" priority="476" operator="containsText" text="_">
+  <conditionalFormatting sqref="A1:J1 B2:D2 B3:B49 G2:I49 L1:XFD1 B54:E72 A73:XFD1048576 K1:K72 P2:XFD72 C3:D55 L2:M53 J2:J54 B53 A2:A72">
+    <cfRule type="containsText" dxfId="410" priority="476" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="421" priority="477" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="409" priority="477" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="478" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="408" priority="478" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="479" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:I51 B51">
-    <cfRule type="containsText" dxfId="418" priority="138" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="406" priority="138" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="139" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="405" priority="139" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="416" priority="140" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="404" priority="140" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="141" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:I52 B52">
-    <cfRule type="containsText" dxfId="414" priority="134" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="402" priority="134" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="413" priority="135" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="401" priority="135" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="136" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="400" priority="136" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B52)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="137" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:I50 B50">
-    <cfRule type="containsText" dxfId="410" priority="130" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="398" priority="130" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="409" priority="131" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="397" priority="131" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="132" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="396" priority="132" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B50)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="133" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55:J56">
-    <cfRule type="containsText" dxfId="406" priority="126" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",G55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="405" priority="127" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",G55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="404" priority="128" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G55)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="129" operator="equal">
+  <conditionalFormatting sqref="G55:J55 G54:I54">
+    <cfRule type="containsText" dxfId="394" priority="126" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",G54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="393" priority="127" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",G54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="392" priority="128" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G54)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="129" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55 O57:O73">
-    <cfRule type="cellIs" dxfId="402" priority="125" operator="equal">
-      <formula>"Vnulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:B54">
-    <cfRule type="containsText" dxfId="401" priority="112" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="113" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="399" priority="114" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B53)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="115" operator="equal">
-      <formula>"VNulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54:I54">
-    <cfRule type="containsText" dxfId="397" priority="108" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",G54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="109" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",G54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="395" priority="110" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G54)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="111" operator="equal">
-      <formula>"VNulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O55:O56">
-    <cfRule type="cellIs" dxfId="393" priority="71" operator="equal">
+  <conditionalFormatting sqref="F54 O56:O72">
+    <cfRule type="cellIs" dxfId="390" priority="125" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53:I53">
-    <cfRule type="containsText" dxfId="392" priority="59" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="389" priority="108" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="391" priority="60" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="388" priority="109" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="61" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="387" priority="110" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G53)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="111" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56:F73">
-    <cfRule type="cellIs" dxfId="388" priority="58" operator="equal">
+  <conditionalFormatting sqref="O54:O55">
+    <cfRule type="cellIs" dxfId="385" priority="71" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:J71">
-    <cfRule type="containsText" dxfId="387" priority="6" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",G57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="7" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",G57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="8" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G57)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="9" operator="equal">
+  <conditionalFormatting sqref="F55:F72">
+    <cfRule type="cellIs" dxfId="384" priority="58" operator="equal">
+      <formula>"Vnulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56:J70">
+    <cfRule type="containsText" dxfId="383" priority="6" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",G56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="382" priority="7" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",G56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="381" priority="8" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G56)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="380" priority="9" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72:J73">
-    <cfRule type="containsText" dxfId="383" priority="1" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",G72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="2" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",G72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G72)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="4" operator="equal">
+  <conditionalFormatting sqref="G71:J72">
+    <cfRule type="containsText" dxfId="379" priority="1" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",G71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="378" priority="2" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",G71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="377" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G71)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="4" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16275,7 +16102,7 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16306,19 +16133,19 @@
         <v>300</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>479</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16326,28 +16153,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>390</v>
+        <v>250</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>207</v>
@@ -16493,59 +16320,45 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:E2 A9:G53 A3:H8 A54:XFD1048576 A1:XFD1 I3:XFD53 L2:XFD2">
-    <cfRule type="containsText" dxfId="379" priority="68" operator="containsText" text="_">
+  <conditionalFormatting sqref="A2:C2 A9:G53 A54:XFD1048576 A1:XFD1 I3:XFD53 L2:XFD2 A3:H8">
+    <cfRule type="containsText" dxfId="375" priority="72" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="69" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="374" priority="73" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="377" priority="70" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="373" priority="74" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="75" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G2">
-    <cfRule type="containsText" dxfId="375" priority="17" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",F2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="18" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",F2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="19" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="20" operator="equal">
-      <formula>"VNulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" dxfId="371" priority="5" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="6" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="8" operator="equal">
+  <conditionalFormatting sqref="D2:J2">
+    <cfRule type="containsText" dxfId="371" priority="9" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="370" priority="10" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="369" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="368" priority="12" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" dxfId="367" priority="1" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="367" priority="5" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="2" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="366" priority="6" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="365" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="365" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",K2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="8" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17007,7 +16820,7 @@
         <v>214</v>
       </c>
       <c r="O9" s="34" t="s">
-        <v>465</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17055,7 +16868,7 @@
         <v>214</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>466</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17103,7 +16916,7 @@
         <v>214</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>467</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17201,7 +17014,7 @@
         <v>291</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17212,7 +17025,7 @@
         <v>302</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>480</v>
+        <v>392</v>
       </c>
       <c r="D14" s="18" t="str">
         <f t="shared" si="0"/>
@@ -17249,7 +17062,7 @@
         <v>291</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>481</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17297,7 +17110,7 @@
         <v>291</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>469</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17345,7 +17158,7 @@
         <v>291</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17443,7 +17256,7 @@
         <v>291</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>471</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17454,7 +17267,7 @@
         <v>303</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>482</v>
+        <v>394</v>
       </c>
       <c r="D19" s="18" t="str">
         <f>_xlfn.CONCAT("tem_",C19)</f>
@@ -17491,7 +17304,7 @@
         <v>291</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>483</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17505,7 +17318,7 @@
         <v>290</v>
       </c>
       <c r="D20" s="18" t="str">
-        <f t="shared" ref="D19:D21" si="3">_xlfn.CONCAT("tem_",C20)</f>
+        <f t="shared" ref="D20:D21" si="3">_xlfn.CONCAT("tem_",C20)</f>
         <v>tem_profun</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -17539,7 +17352,7 @@
         <v>291</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>472</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17587,7 +17400,7 @@
         <v>291</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>473</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17880,7 +17693,7 @@
         <v>282</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>474</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17929,7 +17742,7 @@
         <v>282</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>475</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17977,7 +17790,7 @@
         <v>282</v>
       </c>
       <c r="O29" s="34" t="s">
-        <v>476</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18025,7 +17838,7 @@
         <v>282</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="9.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -21606,9 +21419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC16DFF-EFED-4A4F-AD49-C719B19693F4}">
   <dimension ref="A1:F558"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21646,10 +21459,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>231</v>
@@ -21658,7 +21471,7 @@
         <v>235</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>464</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21666,10 +21479,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>230</v>
@@ -21678,7 +21491,7 @@
         <v>234</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>463</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21686,10 +21499,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>264</v>
@@ -21698,7 +21511,7 @@
         <v>263</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>506</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21706,10 +21519,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>255</v>
@@ -21718,7 +21531,7 @@
         <v>256</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>507</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21726,19 +21539,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>484</v>
+        <v>396</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>482</v>
+        <v>394</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>508</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21746,10 +21559,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>287</v>
@@ -21766,10 +21579,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>269</v>
@@ -21786,10 +21599,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>270</v>
@@ -21806,10 +21619,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>271</v>
@@ -21826,10 +21639,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>310</v>
@@ -23503,7 +23316,7 @@
       <formula>NOT(ISERROR(SEARCH("Prop_",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:F3 A1:XFD1 G4:XFD4 A2:C11 G6:XFD6 D4:E6">
+  <conditionalFormatting sqref="D2:F3 A1:XFD1 G4:XFD4 G6:XFD6 D4:E6 A2:C11">
     <cfRule type="containsText" dxfId="30" priority="228" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>

--- a/Ontologia_Portas.xlsx
+++ b/Ontologia_Portas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLMenegotto\Projetos\OntoBIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F05215-3E23-4C20-BFB7-55CF8C75094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D278336D-3286-4DB8-A184-6262FD873658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjInfo" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="AsDisjunt" sheetId="20" r:id="rId4"/>
     <sheet name="AsProprie" sheetId="14" r:id="rId5"/>
     <sheet name="AsInstanc" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AsClasses!#REF!</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="526">
   <si>
     <t>IfcPolyline</t>
   </si>
@@ -803,9 +804,6 @@
     <t>IFC</t>
   </si>
   <si>
-    <t>Categorias</t>
-  </si>
-  <si>
     <t>Facts: 1a</t>
   </si>
   <si>
@@ -950,9 +948,6 @@
     <t>Disjuntas 5</t>
   </si>
   <si>
-    <t>TiposEnum</t>
-  </si>
-  <si>
     <t>requisito</t>
   </si>
   <si>
@@ -1319,12 +1314,6 @@
     <t>Seccionais</t>
   </si>
   <si>
-    <t>PortaSegurança</t>
-  </si>
-  <si>
-    <t>PortasIsolamento</t>
-  </si>
-  <si>
     <t>Envidraçada</t>
   </si>
   <si>
@@ -1439,12 +1428,6 @@
     <t>Porta Frigorífica</t>
   </si>
   <si>
-    <t>Passagem e Isolamento</t>
-  </si>
-  <si>
-    <t>Passagem e Segurança</t>
-  </si>
-  <si>
     <t>Vão de Passagem</t>
   </si>
   <si>
@@ -1608,6 +1591,43 @@
   </si>
   <si>
     <t>Portas</t>
+  </si>
+  <si>
+    <t>CategoriasRevit</t>
+  </si>
+  <si>
+    <t>CategoriasIFC</t>
+  </si>
+  <si>
+    <t>TiposEnumIFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portas para passagem e isolamento </t>
+  </si>
+  <si>
+    <t>Portas para passagem e segurança</t>
+  </si>
+  <si>
+    <t>Vão aberto em parede utilizando porta sem folhas</t>
+  </si>
+  <si>
+    <t>Segurança</t>
+  </si>
+  <si>
+    <t>Isolamento</t>
+  </si>
+  <si>
+    <t>Livre</t>
+  </si>
+  <si>
+    <t>Class: fofu:filtroA
+    EquivalentTo: 
+        fofu:tem_largura some fofu:FolhaCega</t>
+  </si>
+  <si>
+    <t>Class: fofu:FiltroB
+    EquivalentTo: 
+        fofu:FolhaCega</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1879,6 +1899,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5476,7 +5502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC8FF4B-54F2-49C1-9780-3A24189E7C2F}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5498,15 +5524,15 @@
         <v>206</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12478,8 +12504,8 @@
   <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12494,7 +12520,7 @@
     <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="6.44140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="15.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.44140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="34.5546875" style="2" customWidth="1"/>
     <col min="16" max="29" width="2.44140625" style="2" customWidth="1"/>
@@ -12524,31 +12550,31 @@
         <v>212</v>
       </c>
       <c r="G1" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>293</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>294</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>227</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L1" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="N1" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>307</v>
-      </c>
       <c r="O1" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12559,17 +12585,17 @@
         <v>229</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>424</v>
+        <v>523</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="G2" s="11" t="s">
         <v>207</v>
       </c>
@@ -12580,23 +12606,23 @@
         <v>207</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K2" s="11" t="str">
         <f>_xlfn.CONCAT("POR",A2)</f>
         <v>POR2</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12607,16 +12633,16 @@
         <v>229</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>207</v>
@@ -12628,23 +12654,23 @@
         <v>207</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K3" s="11" t="str">
         <f t="shared" ref="K3:K55" si="0">_xlfn.CONCAT("POR",A3)</f>
         <v>POR3</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12655,16 +12681,16 @@
         <v>229</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>207</v>
@@ -12676,23 +12702,23 @@
         <v>207</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR4</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12703,16 +12729,16 @@
         <v>229</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>207</v>
@@ -12724,23 +12750,23 @@
         <v>207</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR5</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12751,17 +12777,17 @@
         <v>229</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="G6" s="11" t="s">
         <v>207</v>
       </c>
@@ -12772,23 +12798,23 @@
         <v>207</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR6</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12799,16 +12825,16 @@
         <v>229</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>207</v>
@@ -12820,23 +12846,23 @@
         <v>207</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR7</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M7" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="O7" s="33" t="s">
         <v>465</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="O7" s="33" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12847,16 +12873,16 @@
         <v>229</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>207</v>
@@ -12868,23 +12894,23 @@
         <v>207</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR8</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12895,16 +12921,16 @@
         <v>229</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>207</v>
@@ -12916,23 +12942,23 @@
         <v>207</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR9</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12943,16 +12969,16 @@
         <v>229</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>207</v>
@@ -12964,23 +12990,23 @@
         <v>207</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR10</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12991,16 +13017,16 @@
         <v>229</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>207</v>
@@ -13012,23 +13038,23 @@
         <v>207</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR11</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13039,16 +13065,16 @@
         <v>229</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>207</v>
@@ -13060,23 +13086,23 @@
         <v>207</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR12</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13087,16 +13113,16 @@
         <v>229</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>207</v>
@@ -13108,23 +13134,23 @@
         <v>207</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR13</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M13" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13135,16 +13161,16 @@
         <v>229</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>207</v>
@@ -13156,23 +13182,23 @@
         <v>207</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR14</v>
       </c>
       <c r="L14" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13183,16 +13209,16 @@
         <v>229</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>207</v>
@@ -13204,23 +13230,23 @@
         <v>207</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR15</v>
       </c>
       <c r="L15" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13231,16 +13257,16 @@
         <v>229</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>207</v>
@@ -13252,23 +13278,23 @@
         <v>207</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR16</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13279,16 +13305,16 @@
         <v>229</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>207</v>
@@ -13300,23 +13326,23 @@
         <v>207</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR17</v>
       </c>
       <c r="L17" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13327,16 +13353,16 @@
         <v>229</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>207</v>
@@ -13348,23 +13374,23 @@
         <v>207</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR18</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13375,16 +13401,16 @@
         <v>229</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>207</v>
@@ -13396,23 +13422,23 @@
         <v>207</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR19</v>
       </c>
       <c r="L19" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13423,16 +13449,16 @@
         <v>229</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>207</v>
@@ -13444,23 +13470,23 @@
         <v>207</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR20</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13471,16 +13497,16 @@
         <v>229</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>207</v>
@@ -13492,23 +13518,23 @@
         <v>207</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR21</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O21" s="33" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13519,16 +13545,16 @@
         <v>229</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>207</v>
@@ -13540,23 +13566,23 @@
         <v>207</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR22</v>
       </c>
       <c r="L22" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13567,16 +13593,16 @@
         <v>229</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>207</v>
@@ -13588,23 +13614,23 @@
         <v>207</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR23</v>
       </c>
       <c r="L23" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M23" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O23" s="33" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13615,16 +13641,16 @@
         <v>229</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>207</v>
@@ -13636,23 +13662,23 @@
         <v>207</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR24</v>
       </c>
       <c r="L24" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O24" s="33" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13663,16 +13689,16 @@
         <v>229</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>207</v>
@@ -13684,23 +13710,23 @@
         <v>207</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K25" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR25</v>
       </c>
       <c r="L25" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O25" s="33" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13711,16 +13737,16 @@
         <v>229</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>207</v>
@@ -13732,23 +13758,23 @@
         <v>207</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR26</v>
       </c>
       <c r="L26" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M26" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="O26" s="33" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13759,16 +13785,16 @@
         <v>229</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>207</v>
@@ -13780,23 +13806,23 @@
         <v>207</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR27</v>
       </c>
       <c r="L27" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M27" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="O27" s="33" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13807,17 +13833,17 @@
         <v>229</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="G28" s="11" t="s">
         <v>207</v>
       </c>
@@ -13828,23 +13854,23 @@
         <v>207</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR28</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13855,16 +13881,16 @@
         <v>229</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>207</v>
@@ -13876,23 +13902,23 @@
         <v>207</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR29</v>
       </c>
       <c r="L29" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M29" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N29" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O29" s="33" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13903,16 +13929,16 @@
         <v>229</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>207</v>
@@ -13924,23 +13950,23 @@
         <v>207</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR30</v>
       </c>
       <c r="L30" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M30" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O30" s="33" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13951,16 +13977,16 @@
         <v>229</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>207</v>
@@ -13972,23 +13998,23 @@
         <v>207</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K31" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR31</v>
       </c>
       <c r="L31" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M31" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N31" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O31" s="33" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13999,16 +14025,16 @@
         <v>229</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>207</v>
@@ -14020,23 +14046,23 @@
         <v>207</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR32</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M32" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O32" s="33" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14047,16 +14073,16 @@
         <v>229</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>207</v>
@@ -14068,23 +14094,23 @@
         <v>207</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K33" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR33</v>
       </c>
       <c r="L33" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M33" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N33" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O33" s="33" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14095,16 +14121,16 @@
         <v>229</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>207</v>
@@ -14116,23 +14142,23 @@
         <v>207</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K34" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR34</v>
       </c>
       <c r="L34" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M34" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N34" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O34" s="33" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14143,16 +14169,16 @@
         <v>229</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>207</v>
@@ -14164,23 +14190,23 @@
         <v>207</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K35" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR35</v>
       </c>
       <c r="L35" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M35" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N35" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O35" s="33" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14191,16 +14217,16 @@
         <v>229</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>207</v>
@@ -14212,23 +14238,23 @@
         <v>207</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K36" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR36</v>
       </c>
       <c r="L36" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M36" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N36" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O36" s="33" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14239,16 +14265,16 @@
         <v>229</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>207</v>
@@ -14260,23 +14286,23 @@
         <v>207</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K37" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR37</v>
       </c>
       <c r="L37" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M37" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N37" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O37" s="33" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14287,16 +14313,16 @@
         <v>229</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>424</v>
+        <v>521</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>207</v>
@@ -14308,23 +14334,23 @@
         <v>207</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K38" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR38</v>
       </c>
       <c r="L38" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M38" s="33" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="N38" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O38" s="33" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14335,16 +14361,16 @@
         <v>229</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>424</v>
+        <v>522</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>207</v>
@@ -14356,23 +14382,23 @@
         <v>207</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K39" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR39</v>
       </c>
       <c r="L39" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M39" s="33" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="N39" s="33" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O39" s="33" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14383,16 +14409,16 @@
         <v>229</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>424</v>
+        <v>522</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>207</v>
@@ -14404,23 +14430,23 @@
         <v>207</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K40" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR40</v>
       </c>
       <c r="L40" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M40" s="33" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="N40" s="33" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O40" s="33" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14431,16 +14457,16 @@
         <v>229</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>424</v>
+        <v>522</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>207</v>
@@ -14452,23 +14478,23 @@
         <v>207</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K41" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR41</v>
       </c>
       <c r="L41" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M41" s="33" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="N41" s="33" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O41" s="33" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14479,16 +14505,16 @@
         <v>229</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>424</v>
+        <v>522</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>207</v>
@@ -14500,23 +14526,23 @@
         <v>207</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K42" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR42</v>
       </c>
       <c r="L42" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M42" s="33" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="N42" s="33" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O42" s="33" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14527,16 +14553,16 @@
         <v>229</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>424</v>
+        <v>522</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>207</v>
@@ -14548,23 +14574,23 @@
         <v>207</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K43" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR43</v>
       </c>
       <c r="L43" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M43" s="33" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="N43" s="33" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O43" s="33" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14575,16 +14601,16 @@
         <v>229</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>424</v>
+        <v>522</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>207</v>
@@ -14596,23 +14622,23 @@
         <v>207</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K44" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR44</v>
       </c>
       <c r="L44" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M44" s="33" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="N44" s="33" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O44" s="33" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14623,16 +14649,16 @@
         <v>229</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>425</v>
+        <v>522</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>207</v>
@@ -14644,23 +14670,23 @@
         <v>207</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K45" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR45</v>
       </c>
       <c r="L45" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M45" s="33" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="N45" s="33" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="O45" s="33" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14671,16 +14697,16 @@
         <v>229</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>425</v>
+        <v>522</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>207</v>
@@ -14692,23 +14718,23 @@
         <v>207</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K46" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR46</v>
       </c>
       <c r="L46" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M46" s="33" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="N46" s="33" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="O46" s="33" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14719,16 +14745,16 @@
         <v>229</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>425</v>
+        <v>522</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>207</v>
@@ -14740,23 +14766,23 @@
         <v>207</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K47" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR47</v>
       </c>
       <c r="L47" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M47" s="33" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="N47" s="33" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="O47" s="33" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14767,16 +14793,16 @@
         <v>229</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>425</v>
+        <v>522</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>207</v>
@@ -14788,23 +14814,23 @@
         <v>207</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K48" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR48</v>
       </c>
       <c r="L48" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M48" s="33" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="N48" s="33" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="O48" s="33" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14815,16 +14841,16 @@
         <v>229</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>425</v>
+        <v>522</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>207</v>
@@ -14836,23 +14862,23 @@
         <v>207</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K49" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR49</v>
       </c>
       <c r="L49" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M49" s="33" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="N49" s="33" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="O49" s="33" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14863,16 +14889,16 @@
         <v>229</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>425</v>
+        <v>522</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>207</v>
@@ -14884,23 +14910,23 @@
         <v>207</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K50" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR50</v>
       </c>
       <c r="L50" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M50" s="33" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="N50" s="33" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="O50" s="33" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14911,16 +14937,16 @@
         <v>229</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>425</v>
+        <v>522</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>207</v>
@@ -14932,23 +14958,23 @@
         <v>207</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K51" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR51</v>
       </c>
       <c r="L51" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M51" s="33" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="N51" s="33" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="O51" s="33" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14959,16 +14985,16 @@
         <v>229</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>425</v>
+        <v>522</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>207</v>
@@ -14980,23 +15006,23 @@
         <v>207</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K52" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR52</v>
       </c>
       <c r="L52" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M52" s="33" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="N52" s="33" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="O52" s="33" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15007,16 +15033,16 @@
         <v>229</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>425</v>
+        <v>522</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>207</v>
@@ -15028,23 +15054,23 @@
         <v>207</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="K53" s="11" t="str">
         <f t="shared" si="0"/>
         <v>POR53</v>
       </c>
       <c r="L53" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M53" s="33" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="N53" s="33" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="O53" s="33" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15061,7 +15087,7 @@
         <v>228</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>252</v>
+        <v>515</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>20</v>
@@ -15083,13 +15109,13 @@
         <v>POR54</v>
       </c>
       <c r="L54" s="33" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M54" s="33" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N54" s="33" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O54" s="33" t="s">
         <v>20</v>
@@ -15109,7 +15135,7 @@
         <v>251</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>252</v>
+        <v>516</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>19</v>
@@ -15131,13 +15157,13 @@
         <v>POR55</v>
       </c>
       <c r="L55" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M55" s="33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N55" s="33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O55" s="33" t="s">
         <v>19</v>
@@ -15157,10 +15183,10 @@
         <v>251</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>207</v>
@@ -15179,16 +15205,16 @@
         <v>POR56</v>
       </c>
       <c r="L56" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M56" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N56" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O56" s="33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15205,10 +15231,10 @@
         <v>251</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>207</v>
@@ -15227,16 +15253,16 @@
         <v>POR57</v>
       </c>
       <c r="L57" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M57" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N57" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O57" s="33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15253,10 +15279,10 @@
         <v>251</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>207</v>
@@ -15275,16 +15301,16 @@
         <v>POR58</v>
       </c>
       <c r="L58" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M58" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N58" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O58" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15301,10 +15327,10 @@
         <v>251</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>207</v>
@@ -15323,16 +15349,16 @@
         <v>POR59</v>
       </c>
       <c r="L59" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M59" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N59" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O59" s="33" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15349,10 +15375,10 @@
         <v>251</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>207</v>
@@ -15371,16 +15397,16 @@
         <v>POR60</v>
       </c>
       <c r="L60" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M60" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N60" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O60" s="33" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15397,10 +15423,10 @@
         <v>251</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>207</v>
@@ -15419,16 +15445,16 @@
         <v>POR61</v>
       </c>
       <c r="L61" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M61" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N61" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O61" s="33" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15445,10 +15471,10 @@
         <v>251</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>207</v>
@@ -15467,16 +15493,16 @@
         <v>POR62</v>
       </c>
       <c r="L62" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M62" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N62" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O62" s="33" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15493,10 +15519,10 @@
         <v>251</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>207</v>
@@ -15515,16 +15541,16 @@
         <v>POR63</v>
       </c>
       <c r="L63" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M63" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N63" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O63" s="33" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15541,10 +15567,10 @@
         <v>251</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>207</v>
@@ -15563,16 +15589,16 @@
         <v>POR64</v>
       </c>
       <c r="L64" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M64" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N64" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O64" s="33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15589,10 +15615,10 @@
         <v>251</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>207</v>
@@ -15611,16 +15637,16 @@
         <v>POR65</v>
       </c>
       <c r="L65" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M65" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N65" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O65" s="33" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15637,10 +15663,10 @@
         <v>251</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>207</v>
@@ -15659,16 +15685,16 @@
         <v>POR66</v>
       </c>
       <c r="L66" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M66" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N66" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O66" s="33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15685,10 +15711,10 @@
         <v>251</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>207</v>
@@ -15707,16 +15733,16 @@
         <v>POR67</v>
       </c>
       <c r="L67" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M67" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N67" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O67" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -15733,10 +15759,10 @@
         <v>251</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>207</v>
@@ -15755,16 +15781,16 @@
         <v>POR68</v>
       </c>
       <c r="L68" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M68" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N68" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O68" s="33" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -15781,10 +15807,10 @@
         <v>251</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>207</v>
@@ -15803,16 +15829,16 @@
         <v>POR69</v>
       </c>
       <c r="L69" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M69" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N69" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O69" s="33" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -15829,10 +15855,10 @@
         <v>251</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>207</v>
@@ -15851,16 +15877,16 @@
         <v>POR70</v>
       </c>
       <c r="L70" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M70" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N70" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O70" s="33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -15877,10 +15903,10 @@
         <v>251</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>207</v>
@@ -15899,16 +15925,16 @@
         <v>POR71</v>
       </c>
       <c r="L71" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M71" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N71" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O71" s="33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -15925,10 +15951,10 @@
         <v>251</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>207</v>
@@ -15947,16 +15973,16 @@
         <v>POR72</v>
       </c>
       <c r="L72" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M72" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N72" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O72" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -15964,7 +15990,7 @@
     <sortCondition ref="E1:E54"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:J1 B2:D2 B3:B49 G2:I49 L1:XFD1 B54:E72 A73:XFD1048576 K1:K72 P2:XFD72 C3:D55 L2:M53 J2:J54 B53 A2:A72">
+  <conditionalFormatting sqref="A1:J1 B2:D2 B3:B49 G2:I49 L1:XFD1 A73:XFD1048576 K1:K72 P2:XFD72 B53 A2:A72 J2:J54 B54:E72 C3:D55 L2:M53">
     <cfRule type="containsText" dxfId="410" priority="476" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
@@ -16098,19 +16124,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05745E6-4BCE-4DB3-BA79-65D069C44F12}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" style="2" customWidth="1"/>
     <col min="2" max="11" width="9.109375" style="2" customWidth="1"/>
-    <col min="12" max="215" width="2.33203125" style="2" customWidth="1"/>
-    <col min="216" max="16384" width="9.109375" style="2"/>
+    <col min="12" max="214" width="2.33203125" style="2" customWidth="1"/>
+    <col min="215" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="29" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16118,34 +16144,34 @@
         <v>1</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>300</v>
-      </c>
       <c r="G1" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>353</v>
-      </c>
       <c r="J1" s="28" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16153,10 +16179,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>207</v>
@@ -16182,6 +16208,9 @@
       <c r="K2" s="11" t="s">
         <v>207</v>
       </c>
+    </row>
+    <row r="8" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8"/>
     </row>
     <row r="9" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H9"/>
@@ -16315,22 +16344,19 @@
     <row r="52" spans="8:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H52"/>
     </row>
-    <row r="53" spans="8:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H53"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:C2 A9:G53 A54:XFD1048576 A1:XFD1 I3:XFD53 L2:XFD2 A3:H8">
-    <cfRule type="containsText" dxfId="375" priority="72" operator="containsText" text="_">
+  <conditionalFormatting sqref="A8:G52 A53:K1048576 A1:K1 I3:K52 A3:H7 A2:C2 L1:XFD1048576">
+    <cfRule type="containsText" dxfId="375" priority="88" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="73" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="374" priority="89" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="74" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="373" priority="90" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="91" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16371,9 +16397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62272EF8-F168-46E8-B331-113C6804F082}">
   <dimension ref="A1:O609"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.6" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16381,7 +16407,7 @@
     <col min="1" max="1" width="2.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="21" customWidth="1"/>
     <col min="5" max="7" width="5.88671875" style="21" customWidth="1"/>
     <col min="8" max="8" width="8.109375" style="21" customWidth="1"/>
     <col min="9" max="9" width="7" style="21" customWidth="1"/>
@@ -16402,7 +16428,7 @@
         <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>219</v>
@@ -16435,7 +16461,7 @@
         <v>213</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16484,7 +16510,7 @@
         <v>207</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16492,10 +16518,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D3" s="18" t="str">
         <f>_xlfn.CONCAT("tem_",C3)</f>
@@ -16514,7 +16540,7 @@
         <v>207</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>207</v>
@@ -16532,7 +16558,7 @@
         <v>214</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16540,10 +16566,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D4" s="18" t="str">
         <f t="shared" ref="D4:D25" si="0">_xlfn.CONCAT("tem_",C4)</f>
@@ -16562,7 +16588,7 @@
         <v>207</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>207</v>
@@ -16580,7 +16606,7 @@
         <v>214</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16588,10 +16614,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" s="18" t="str">
         <f t="shared" si="0"/>
@@ -16610,7 +16636,7 @@
         <v>207</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>207</v>
@@ -16628,7 +16654,7 @@
         <v>214</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16636,10 +16662,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" s="18" t="str">
         <f t="shared" si="0"/>
@@ -16658,7 +16684,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>207</v>
@@ -16676,7 +16702,7 @@
         <v>214</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16684,10 +16710,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D7" s="18" t="str">
         <f t="shared" si="0"/>
@@ -16706,7 +16732,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>207</v>
@@ -16724,7 +16750,7 @@
         <v>214</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16732,7 +16758,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>249</v>
@@ -16754,7 +16780,7 @@
         <v>207</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>207</v>
@@ -16772,7 +16798,7 @@
         <v>214</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16780,7 +16806,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>234</v>
@@ -16802,7 +16828,7 @@
         <v>207</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>207</v>
@@ -16820,7 +16846,7 @@
         <v>214</v>
       </c>
       <c r="O9" s="34" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16828,7 +16854,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>235</v>
@@ -16850,7 +16876,7 @@
         <v>207</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>207</v>
@@ -16868,7 +16894,7 @@
         <v>214</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16876,10 +16902,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D11" s="18" t="str">
         <f t="shared" si="0"/>
@@ -16898,7 +16924,7 @@
         <v>207</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>207</v>
@@ -16916,7 +16942,7 @@
         <v>214</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16966,7 +16992,7 @@
         <v>207</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16974,10 +17000,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D13" s="18" t="str">
         <f t="shared" ref="D13" si="1">_xlfn.CONCAT("tem_",C13)</f>
@@ -16996,7 +17022,7 @@
         <v>207</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>207</v>
@@ -17011,10 +17037,10 @@
         <v>207</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17022,10 +17048,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D14" s="18" t="str">
         <f t="shared" si="0"/>
@@ -17044,7 +17070,7 @@
         <v>207</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>207</v>
@@ -17059,10 +17085,10 @@
         <v>207</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17070,10 +17096,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D15" s="18" t="str">
         <f t="shared" si="0"/>
@@ -17092,7 +17118,7 @@
         <v>207</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>207</v>
@@ -17107,10 +17133,10 @@
         <v>207</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17118,10 +17144,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D16" s="18" t="str">
         <f t="shared" si="0"/>
@@ -17140,7 +17166,7 @@
         <v>207</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J16" s="16" t="s">
         <v>207</v>
@@ -17155,10 +17181,10 @@
         <v>207</v>
       </c>
       <c r="N16" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17208,7 +17234,7 @@
         <v>207</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17216,10 +17242,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D18" s="18" t="str">
         <f t="shared" ref="D18" si="2">_xlfn.CONCAT("tem_",C18)</f>
@@ -17238,7 +17264,7 @@
         <v>207</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>207</v>
@@ -17253,10 +17279,10 @@
         <v>207</v>
       </c>
       <c r="N18" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17264,10 +17290,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D19" s="18" t="str">
         <f>_xlfn.CONCAT("tem_",C19)</f>
@@ -17286,7 +17312,7 @@
         <v>207</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>207</v>
@@ -17301,10 +17327,10 @@
         <v>207</v>
       </c>
       <c r="N19" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17312,10 +17338,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D20" s="18" t="str">
         <f t="shared" ref="D20:D21" si="3">_xlfn.CONCAT("tem_",C20)</f>
@@ -17334,7 +17360,7 @@
         <v>207</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J20" s="16" t="s">
         <v>207</v>
@@ -17349,10 +17375,10 @@
         <v>207</v>
       </c>
       <c r="N20" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17360,10 +17386,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D21" s="18" t="str">
         <f t="shared" si="3"/>
@@ -17382,7 +17408,7 @@
         <v>207</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>207</v>
@@ -17397,10 +17423,10 @@
         <v>207</v>
       </c>
       <c r="N21" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17450,7 +17476,7 @@
         <v>207</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17458,10 +17484,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>265</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>266</v>
       </c>
       <c r="D23" s="18" t="str">
         <f t="shared" si="0"/>
@@ -17480,7 +17506,7 @@
         <v>207</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J23" s="16" t="s">
         <v>207</v>
@@ -17495,10 +17521,10 @@
         <v>207</v>
       </c>
       <c r="N23" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O23" s="34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17506,10 +17532,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D24" s="18" t="str">
         <f t="shared" si="0"/>
@@ -17528,7 +17554,7 @@
         <v>207</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>207</v>
@@ -17543,10 +17569,10 @@
         <v>207</v>
       </c>
       <c r="N24" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O24" s="34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17554,10 +17580,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D25" s="18" t="str">
         <f t="shared" si="0"/>
@@ -17576,7 +17602,7 @@
         <v>207</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>207</v>
@@ -17591,10 +17617,10 @@
         <v>207</v>
       </c>
       <c r="N25" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O25" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17644,7 +17670,7 @@
         <v>207</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17652,10 +17678,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D27" s="18" t="str">
         <f>_xlfn.CONCAT("ser_",C27)</f>
@@ -17675,7 +17701,7 @@
         <v>ser_articulado</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>207</v>
@@ -17690,10 +17716,10 @@
         <v>207</v>
       </c>
       <c r="N27" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17701,10 +17727,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D28" s="18" t="str">
         <f t="shared" ref="D28:D30" si="4">_xlfn.CONCAT("ser_",C28)</f>
@@ -17724,7 +17750,7 @@
         <v>ser_articulador</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>207</v>
@@ -17739,10 +17765,10 @@
         <v>207</v>
       </c>
       <c r="N28" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17750,10 +17776,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D29" s="18" t="str">
         <f t="shared" si="4"/>
@@ -17772,7 +17798,7 @@
         <v>207</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>207</v>
@@ -17787,10 +17813,10 @@
         <v>207</v>
       </c>
       <c r="N29" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O29" s="34" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -17798,10 +17824,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D30" s="18" t="str">
         <f t="shared" si="4"/>
@@ -17820,7 +17846,7 @@
         <v>207</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>207</v>
@@ -17835,10 +17861,10 @@
         <v>207</v>
       </c>
       <c r="N30" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="9.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -21421,7 +21447,7 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21442,16 +21468,16 @@
         <v>224</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21459,10 +21485,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>231</v>
@@ -21471,7 +21497,7 @@
         <v>235</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21479,10 +21505,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>230</v>
@@ -21491,7 +21517,7 @@
         <v>234</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21499,19 +21525,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21519,19 +21545,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D5" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>256</v>
-      </c>
       <c r="F5" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21539,19 +21565,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21559,19 +21585,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21579,19 +21605,19 @@
         <v>9</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21599,19 +21625,19 @@
         <v>10</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21619,19 +21645,19 @@
         <v>11</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -21639,16 +21665,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F11" s="19">
         <v>0</v>
@@ -23433,4 +23459,32 @@
     <ignoredError sqref="F8:F10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E3CB22-805A-4C6C-AA59-21C29CECA7A0}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="60.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.77734375" style="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>525</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>